--- a/3D_Berechnung.xlsx
+++ b/3D_Berechnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonvehreschild/Studium/5_Semester_WS25/PRJ/Hydroponic_Tower_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E4700-2247-0747-935C-F857355E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBCAC02-0B41-1A49-BCD9-A36F206B1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25780" yWindow="3920" windowWidth="25780" windowHeight="18420" xr2:uid="{5A78CE1B-D631-4F43-B5D6-F4B75EA76B11}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{5A78CE1B-D631-4F43-B5D6-F4B75EA76B11}"/>
   </bookViews>
   <sheets>
     <sheet name="3D-Druck" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,22 +579,22 @@
       </c>
       <c r="B3">
         <f>A16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>223.86</v>
       </c>
       <c r="D3">
         <f>B3*C3</f>
-        <v>671.58</v>
+        <v>895.44</v>
       </c>
       <c r="E3" s="3">
         <f>SUM(D3:D5)+SUM(D7:D10)</f>
-        <v>1269.7</v>
+        <v>1558.6000000000001</v>
       </c>
       <c r="F3" s="3">
         <f>E3*$C$16</f>
-        <v>952.27500000000009</v>
+        <v>1168.95</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -616,11 +616,11 @@
       </c>
       <c r="E4" s="4">
         <f>D12+D11+D6</f>
-        <v>531.79000000000008</v>
+        <v>708.31000000000006</v>
       </c>
       <c r="F4" s="4">
         <f>E4*$C$16</f>
-        <v>398.84250000000009</v>
+        <v>531.23250000000007</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -693,14 +693,14 @@
       </c>
       <c r="B9">
         <f>A16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>65.040000000000006</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>195.12</v>
+        <v>260.16000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -739,14 +739,14 @@
       </c>
       <c r="B12">
         <f>4*A16</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>44.13</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>529.56000000000006</v>
+        <v>706.08</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6">
         <v>0.75</v>
